--- a/Jogos_do_Dia/2024-03-23_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-23_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -202,39 +202,39 @@
     <t>Caernarfon Town</t>
   </si>
   <si>
+    <t>Northampton Town</t>
+  </si>
+  <si>
+    <t>Carlisle United</t>
+  </si>
+  <si>
+    <t>Tranmere Rovers</t>
+  </si>
+  <si>
+    <t>Sutton United</t>
+  </si>
+  <si>
     <t>Notts County</t>
   </si>
   <si>
+    <t>Burton Albion</t>
+  </si>
+  <si>
+    <t>Grimsby Town</t>
+  </si>
+  <si>
+    <t>Doncaster Rovers</t>
+  </si>
+  <si>
+    <t>Crewe Alexandra</t>
+  </si>
+  <si>
     <t>Barrow</t>
   </si>
   <si>
-    <t>Grimsby Town</t>
-  </si>
-  <si>
     <t>Morecambe</t>
   </si>
   <si>
-    <t>Doncaster Rovers</t>
-  </si>
-  <si>
-    <t>Crewe Alexandra</t>
-  </si>
-  <si>
-    <t>Tranmere Rovers</t>
-  </si>
-  <si>
-    <t>Burton Albion</t>
-  </si>
-  <si>
-    <t>Carlisle United</t>
-  </si>
-  <si>
-    <t>Northampton Town</t>
-  </si>
-  <si>
-    <t>Sutton United</t>
-  </si>
-  <si>
     <t>AD Alcorcón</t>
   </si>
   <si>
@@ -274,37 +274,37 @@
     <t>Cardiff MU</t>
   </si>
   <si>
+    <t>Derby County</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Accrington Stanley</t>
+  </si>
+  <si>
     <t>Salford City</t>
   </si>
   <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
+    <t>Forest Green Rovers</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon</t>
+  </si>
+  <si>
     <t>Newport County</t>
   </si>
   <si>
-    <t>Wrexham</t>
-  </si>
-  <si>
     <t>Gillingham</t>
-  </si>
-  <si>
-    <t>Forest Green Rovers</t>
-  </si>
-  <si>
-    <t>AFC Wimbledon</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
-  </si>
-  <si>
-    <t>Port Vale</t>
-  </si>
-  <si>
-    <t>Stevenage</t>
-  </si>
-  <si>
-    <t>Derby County</t>
-  </si>
-  <si>
-    <t>Accrington Stanley</t>
   </si>
   <si>
     <t>Real Oviedo</t>
@@ -862,13 +862,13 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="K2">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="M2">
         <v>1.25</v>
@@ -889,10 +889,10 @@
         <v>5.5</v>
       </c>
       <c r="S2">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="T2">
-        <v>2.55</v>
+        <v>2.22</v>
       </c>
       <c r="U2">
         <v>1.67</v>
@@ -993,13 +993,13 @@
         <v>2.75</v>
       </c>
       <c r="J3">
-        <v>4.18</v>
+        <v>3.95</v>
       </c>
       <c r="K3">
-        <v>3.63</v>
+        <v>3.4</v>
       </c>
       <c r="L3">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="M3">
         <v>1.4</v>
@@ -1020,10 +1020,10 @@
         <v>3.5</v>
       </c>
       <c r="S3">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="T3">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U3">
         <v>1.73</v>
@@ -1115,61 +1115,61 @@
         <v>85</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="Z4">
         <v>1.57</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="5" spans="1:43">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2">
         <v>45374</v>
@@ -1246,120 +1246,120 @@
         <v>86</v>
       </c>
       <c r="G5">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="H5">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="J5">
-        <v>1.97</v>
+        <v>4.98</v>
       </c>
       <c r="K5">
-        <v>3.8</v>
+        <v>2.94</v>
       </c>
       <c r="L5">
-        <v>2.88</v>
+        <v>1.76</v>
       </c>
       <c r="M5">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="N5">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="O5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="P5">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Q5">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="R5">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="S5">
-        <v>1.4</v>
+        <v>1.91</v>
       </c>
       <c r="T5">
+        <v>1.69</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>1.75</v>
+      </c>
+      <c r="W5">
+        <v>2.15</v>
+      </c>
+      <c r="X5">
+        <v>1.22</v>
+      </c>
+      <c r="Y5">
+        <v>1.17</v>
+      </c>
+      <c r="Z5">
+        <v>1.53</v>
+      </c>
+      <c r="AA5">
+        <v>2</v>
+      </c>
+      <c r="AB5">
+        <v>1.28</v>
+      </c>
+      <c r="AC5">
+        <v>1.36</v>
+      </c>
+      <c r="AD5">
+        <v>2.64</v>
+      </c>
+      <c r="AE5">
+        <v>3.48</v>
+      </c>
+      <c r="AF5">
+        <v>8</v>
+      </c>
+      <c r="AG5">
+        <v>1.45</v>
+      </c>
+      <c r="AH5">
+        <v>1.2</v>
+      </c>
+      <c r="AI5">
+        <v>3.95</v>
+      </c>
+      <c r="AJ5">
+        <v>1.38</v>
+      </c>
+      <c r="AK5">
         <v>2.75</v>
       </c>
-      <c r="U5">
-        <v>1.53</v>
-      </c>
-      <c r="V5">
-        <v>2.38</v>
-      </c>
-      <c r="W5">
-        <v>1.28</v>
-      </c>
-      <c r="X5">
-        <v>1.25</v>
-      </c>
-      <c r="Y5">
-        <v>1.85</v>
-      </c>
-      <c r="Z5">
-        <v>1.72</v>
-      </c>
-      <c r="AA5">
-        <v>1.16</v>
-      </c>
-      <c r="AB5">
-        <v>1.47</v>
-      </c>
-      <c r="AC5">
-        <v>1.42</v>
-      </c>
-      <c r="AD5">
-        <v>2.89</v>
-      </c>
-      <c r="AE5">
-        <v>1.51</v>
-      </c>
-      <c r="AF5">
-        <v>9</v>
-      </c>
-      <c r="AG5">
-        <v>3.06</v>
-      </c>
-      <c r="AH5">
-        <v>1.17</v>
-      </c>
-      <c r="AI5">
-        <v>4.5</v>
-      </c>
-      <c r="AJ5">
-        <v>1.32</v>
-      </c>
-      <c r="AK5">
-        <v>3.1</v>
-      </c>
       <c r="AL5">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="AM5">
-        <v>2.27</v>
+        <v>2.07</v>
       </c>
       <c r="AN5">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="AO5">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="AP5">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AQ5">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="6" spans="1:43">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2">
         <v>45374</v>
@@ -1368,7 +1368,7 @@
         <v>52</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
         <v>63</v>
@@ -1377,115 +1377,115 @@
         <v>87</v>
       </c>
       <c r="G6">
-        <v>2.38</v>
+        <v>5</v>
       </c>
       <c r="H6">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="J6">
-        <v>1.74</v>
+        <v>4.25</v>
       </c>
       <c r="K6">
         <v>3.35</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="M6">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="N6">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="O6">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="P6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q6">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="R6">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="S6">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="T6">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="U6">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="V6">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="W6">
         <v>2.05</v>
       </c>
       <c r="X6">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y6">
         <v>1.2</v>
       </c>
       <c r="Z6">
-        <v>1.89</v>
+        <v>0.74</v>
       </c>
       <c r="AA6">
-        <v>1.16</v>
+        <v>1.58</v>
       </c>
       <c r="AB6">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="AC6">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="AD6">
-        <v>2.54</v>
+        <v>2.53</v>
       </c>
       <c r="AE6">
-        <v>1.51</v>
+        <v>2.52</v>
       </c>
       <c r="AF6">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG6">
-        <v>3.07</v>
+        <v>1.75</v>
       </c>
       <c r="AH6">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AI6">
-        <v>3.65</v>
+        <v>2.85</v>
       </c>
       <c r="AJ6">
-        <v>1.48</v>
+        <v>1.64</v>
       </c>
       <c r="AK6">
-        <v>2.47</v>
+        <v>2.1</v>
       </c>
       <c r="AL6">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="AM6">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="AN6">
-        <v>2.37</v>
+        <v>2.75</v>
       </c>
       <c r="AO6">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="AP6">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="AQ6">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1508,22 +1508,22 @@
         <v>88</v>
       </c>
       <c r="G7">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="H7">
         <v>2.3</v>
       </c>
       <c r="I7">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="J7">
-        <v>3.15</v>
+        <v>2.1</v>
       </c>
       <c r="K7">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L7">
-        <v>1.94</v>
+        <v>3.3</v>
       </c>
       <c r="M7">
         <v>1.33</v>
@@ -1541,52 +1541,52 @@
         <v>1.22</v>
       </c>
       <c r="R7">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="S7">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="T7">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="U7">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="V7">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="W7">
-        <v>1.9</v>
+        <v>1.33</v>
       </c>
       <c r="X7">
         <v>1.22</v>
       </c>
       <c r="Y7">
-        <v>1.28</v>
+        <v>1.78</v>
       </c>
       <c r="Z7">
-        <v>1.32</v>
+        <v>1.84</v>
       </c>
       <c r="AA7">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AB7">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AC7">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="AD7">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="AE7">
-        <v>2.78</v>
+        <v>1.75</v>
       </c>
       <c r="AF7">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG7">
-        <v>1.64</v>
+        <v>2.43</v>
       </c>
       <c r="AH7">
         <v>1.15</v>
@@ -1595,28 +1595,28 @@
         <v>4.75</v>
       </c>
       <c r="AJ7">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="AK7">
-        <v>3.4</v>
+        <v>3.48</v>
       </c>
       <c r="AL7">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AM7">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="AN7">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="AO7">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="AP7">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="AQ7">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1639,22 +1639,22 @@
         <v>89</v>
       </c>
       <c r="G8">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="H8">
         <v>2.1</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="K8">
+        <v>3.5</v>
+      </c>
+      <c r="L8">
         <v>3.3</v>
-      </c>
-      <c r="L8">
-        <v>2.37</v>
       </c>
       <c r="M8">
         <v>1.4</v>
@@ -1666,58 +1666,58 @@
         <v>1.05</v>
       </c>
       <c r="P8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q8">
         <v>1.33</v>
       </c>
       <c r="R8">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="S8">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="T8">
         <v>1.83</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V8">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>1.65</v>
+        <v>1.33</v>
       </c>
       <c r="X8">
         <v>1.25</v>
       </c>
       <c r="Y8">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="Z8">
-        <v>1.56</v>
+        <v>0.89</v>
       </c>
       <c r="AA8">
+        <v>1.06</v>
+      </c>
+      <c r="AB8">
         <v>1.32</v>
       </c>
-      <c r="AB8">
-        <v>1.22</v>
-      </c>
       <c r="AC8">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AD8">
-        <v>2.44</v>
+        <v>2.58</v>
       </c>
       <c r="AE8">
-        <v>2.1</v>
+        <v>1.59</v>
       </c>
       <c r="AF8">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG8">
-        <v>2</v>
+        <v>2.85</v>
       </c>
       <c r="AH8">
         <v>1.2</v>
@@ -1726,28 +1726,28 @@
         <v>4</v>
       </c>
       <c r="AJ8">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="AK8">
-        <v>2.77</v>
+        <v>2.62</v>
       </c>
       <c r="AL8">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AM8">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AN8">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="AO8">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="AP8">
-        <v>2.77</v>
+        <v>3.1</v>
       </c>
       <c r="AQ8">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1770,120 +1770,120 @@
         <v>90</v>
       </c>
       <c r="G9">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H9">
+        <v>2.38</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>1.91</v>
+      </c>
+      <c r="K9">
+        <v>3.6</v>
+      </c>
+      <c r="L9">
+        <v>3.9</v>
+      </c>
+      <c r="M9">
+        <v>1.29</v>
+      </c>
+      <c r="N9">
+        <v>3.5</v>
+      </c>
+      <c r="O9">
+        <v>1.02</v>
+      </c>
+      <c r="P9">
+        <v>17</v>
+      </c>
+      <c r="Q9">
+        <v>1.18</v>
+      </c>
+      <c r="R9">
+        <v>4.75</v>
+      </c>
+      <c r="S9">
+        <v>1.48</v>
+      </c>
+      <c r="T9">
         <v>2.2</v>
       </c>
-      <c r="I9">
-        <v>4.33</v>
-      </c>
-      <c r="J9">
-        <v>1.82</v>
-      </c>
-      <c r="K9">
-        <v>3.45</v>
-      </c>
-      <c r="L9">
-        <v>3.6</v>
-      </c>
-      <c r="M9">
-        <v>1.4</v>
-      </c>
-      <c r="N9">
-        <v>2.75</v>
-      </c>
-      <c r="O9">
-        <v>1.04</v>
-      </c>
-      <c r="P9">
-        <v>12</v>
-      </c>
-      <c r="Q9">
-        <v>1.3</v>
-      </c>
-      <c r="R9">
-        <v>3.5</v>
-      </c>
-      <c r="S9">
-        <v>1.88</v>
-      </c>
-      <c r="T9">
-        <v>1.92</v>
-      </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="V9">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="W9">
+        <v>1.28</v>
+      </c>
+      <c r="X9">
         <v>1.25</v>
       </c>
-      <c r="X9">
-        <v>1.22</v>
-      </c>
       <c r="Y9">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="Z9">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="AA9">
-        <v>0.9399999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="AB9">
+        <v>1.47</v>
+      </c>
+      <c r="AC9">
+        <v>1.42</v>
+      </c>
+      <c r="AD9">
+        <v>2.89</v>
+      </c>
+      <c r="AE9">
+        <v>1.51</v>
+      </c>
+      <c r="AF9">
+        <v>9</v>
+      </c>
+      <c r="AG9">
+        <v>3.06</v>
+      </c>
+      <c r="AH9">
+        <v>1.17</v>
+      </c>
+      <c r="AI9">
+        <v>4.5</v>
+      </c>
+      <c r="AJ9">
         <v>1.32</v>
       </c>
-      <c r="AC9">
-        <v>1.18</v>
-      </c>
-      <c r="AD9">
-        <v>2.5</v>
-      </c>
-      <c r="AE9">
-        <v>1.41</v>
-      </c>
-      <c r="AF9">
-        <v>8</v>
-      </c>
-      <c r="AG9">
-        <v>3.61</v>
-      </c>
-      <c r="AH9">
-        <v>1.22</v>
-      </c>
-      <c r="AI9">
-        <v>3.8</v>
-      </c>
-      <c r="AJ9">
-        <v>1.41</v>
-      </c>
       <c r="AK9">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="AL9">
+        <v>1.56</v>
+      </c>
+      <c r="AM9">
+        <v>2.27</v>
+      </c>
+      <c r="AN9">
+        <v>1.99</v>
+      </c>
+      <c r="AO9">
         <v>1.73</v>
       </c>
-      <c r="AM9">
-        <v>1.99</v>
-      </c>
-      <c r="AN9">
-        <v>2.2</v>
-      </c>
-      <c r="AO9">
-        <v>1.6</v>
-      </c>
       <c r="AP9">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="AQ9">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="10" spans="1:43">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2">
         <v>45374</v>
@@ -1901,115 +1901,115 @@
         <v>91</v>
       </c>
       <c r="G10">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>3.75</v>
+      </c>
+      <c r="J10">
+        <v>2.4</v>
+      </c>
+      <c r="K10">
+        <v>3.3</v>
+      </c>
+      <c r="L10">
+        <v>2.87</v>
+      </c>
+      <c r="M10">
+        <v>1.5</v>
+      </c>
+      <c r="N10">
+        <v>2.5</v>
+      </c>
+      <c r="O10">
+        <v>1.07</v>
+      </c>
+      <c r="P10">
+        <v>9</v>
+      </c>
+      <c r="Q10">
+        <v>1.4</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
         <v>2.1</v>
       </c>
-      <c r="I10">
-        <v>3.4</v>
-      </c>
-      <c r="J10">
-        <v>2.63</v>
-      </c>
-      <c r="K10">
-        <v>3.36</v>
-      </c>
-      <c r="L10">
-        <v>2.61</v>
-      </c>
-      <c r="M10">
-        <v>1.4</v>
-      </c>
-      <c r="N10">
-        <v>2.75</v>
-      </c>
-      <c r="O10">
-        <v>1.05</v>
-      </c>
-      <c r="P10">
-        <v>11</v>
-      </c>
-      <c r="Q10">
-        <v>1.33</v>
-      </c>
-      <c r="R10">
-        <v>3.3</v>
-      </c>
-      <c r="S10">
-        <v>1.94</v>
-      </c>
       <c r="T10">
-        <v>1.84</v>
+        <v>1.67</v>
       </c>
       <c r="U10">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W10">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="X10">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="Y10">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="Z10">
-        <v>1.95</v>
+        <v>1.22</v>
       </c>
       <c r="AA10">
-        <v>1.32</v>
+        <v>0.83</v>
       </c>
       <c r="AB10">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AC10">
-        <v>1.34</v>
+        <v>1.12</v>
       </c>
       <c r="AD10">
-        <v>2.61</v>
+        <v>2.38</v>
       </c>
       <c r="AE10">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AF10">
         <v>8</v>
       </c>
       <c r="AG10">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AH10">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AI10">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AJ10">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AK10">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AL10">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="AM10">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AN10">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="AO10">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AP10">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="AQ10">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2032,22 +2032,22 @@
         <v>92</v>
       </c>
       <c r="G11">
-        <v>2.63</v>
+        <v>4.33</v>
       </c>
       <c r="H11">
         <v>2.3</v>
       </c>
       <c r="I11">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="J11">
-        <v>2.07</v>
+        <v>3.5</v>
       </c>
       <c r="K11">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="L11">
-        <v>2.87</v>
+        <v>1.77</v>
       </c>
       <c r="M11">
         <v>1.33</v>
@@ -2065,52 +2065,52 @@
         <v>1.22</v>
       </c>
       <c r="R11">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="S11">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="T11">
+        <v>2.02</v>
+      </c>
+      <c r="U11">
+        <v>1.67</v>
+      </c>
+      <c r="V11">
         <v>2.1</v>
       </c>
-      <c r="U11">
-        <v>1.57</v>
-      </c>
-      <c r="V11">
-        <v>2.25</v>
-      </c>
       <c r="W11">
-        <v>1.33</v>
+        <v>1.9</v>
       </c>
       <c r="X11">
         <v>1.22</v>
       </c>
       <c r="Y11">
-        <v>1.78</v>
+        <v>1.28</v>
       </c>
       <c r="Z11">
-        <v>1.84</v>
+        <v>1.32</v>
       </c>
       <c r="AA11">
+        <v>1.32</v>
+      </c>
+      <c r="AB11">
         <v>1.33</v>
       </c>
-      <c r="AB11">
-        <v>1.46</v>
-      </c>
       <c r="AC11">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AD11">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="AE11">
-        <v>1.75</v>
+        <v>2.78</v>
       </c>
       <c r="AF11">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG11">
-        <v>2.43</v>
+        <v>1.64</v>
       </c>
       <c r="AH11">
         <v>1.15</v>
@@ -2119,33 +2119,33 @@
         <v>4.75</v>
       </c>
       <c r="AJ11">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AK11">
-        <v>3.48</v>
+        <v>3.4</v>
       </c>
       <c r="AL11">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AM11">
-        <v>2.47</v>
+        <v>2.6</v>
       </c>
       <c r="AN11">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AO11">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="AP11">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="AQ11">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="12" spans="1:43">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2">
         <v>45374</v>
@@ -2163,112 +2163,112 @@
         <v>93</v>
       </c>
       <c r="G12">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="I12">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="J12">
-        <v>2.29</v>
+        <v>1.85</v>
       </c>
       <c r="K12">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="L12">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="N12">
+        <v>2.75</v>
+      </c>
+      <c r="O12">
+        <v>1.04</v>
+      </c>
+      <c r="P12">
+        <v>12</v>
+      </c>
+      <c r="Q12">
+        <v>1.3</v>
+      </c>
+      <c r="R12">
+        <v>3.5</v>
+      </c>
+      <c r="S12">
+        <v>1.83</v>
+      </c>
+      <c r="T12">
+        <v>1.91</v>
+      </c>
+      <c r="U12">
+        <v>1.8</v>
+      </c>
+      <c r="V12">
+        <v>1.91</v>
+      </c>
+      <c r="W12">
+        <v>1.25</v>
+      </c>
+      <c r="X12">
+        <v>1.22</v>
+      </c>
+      <c r="Y12">
+        <v>1.9</v>
+      </c>
+      <c r="Z12">
+        <v>1.61</v>
+      </c>
+      <c r="AA12">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AB12">
+        <v>1.32</v>
+      </c>
+      <c r="AC12">
+        <v>1.18</v>
+      </c>
+      <c r="AD12">
         <v>2.5</v>
       </c>
-      <c r="O12">
-        <v>1.07</v>
-      </c>
-      <c r="P12">
-        <v>9</v>
-      </c>
-      <c r="Q12">
-        <v>1.4</v>
-      </c>
-      <c r="R12">
-        <v>3</v>
-      </c>
-      <c r="S12">
-        <v>2.2</v>
-      </c>
-      <c r="T12">
-        <v>1.6</v>
-      </c>
-      <c r="U12">
-        <v>1.95</v>
-      </c>
-      <c r="V12">
-        <v>1.8</v>
-      </c>
-      <c r="W12">
-        <v>1.36</v>
-      </c>
-      <c r="X12">
-        <v>1.28</v>
-      </c>
-      <c r="Y12">
-        <v>1.63</v>
-      </c>
-      <c r="Z12">
-        <v>1.22</v>
-      </c>
-      <c r="AA12">
-        <v>0.83</v>
-      </c>
-      <c r="AB12">
-        <v>1.26</v>
-      </c>
-      <c r="AC12">
-        <v>1.12</v>
-      </c>
-      <c r="AD12">
-        <v>2.38</v>
-      </c>
       <c r="AE12">
-        <v>2.05</v>
+        <v>1.41</v>
       </c>
       <c r="AF12">
         <v>8</v>
       </c>
       <c r="AG12">
-        <v>2</v>
+        <v>3.61</v>
       </c>
       <c r="AH12">
         <v>1.22</v>
       </c>
       <c r="AI12">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AJ12">
         <v>1.41</v>
       </c>
       <c r="AK12">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="AL12">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AM12">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="AN12">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="AO12">
         <v>1.6</v>
       </c>
       <c r="AP12">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="AQ12">
         <v>1.36</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="13" spans="1:43">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2">
         <v>45374</v>
@@ -2294,120 +2294,120 @@
         <v>94</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="H13">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="I13">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="J13">
-        <v>4.1</v>
+        <v>2.33</v>
       </c>
       <c r="K13">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L13">
-        <v>1.79</v>
+        <v>2.55</v>
       </c>
       <c r="M13">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="N13">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="O13">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="P13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q13">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="R13">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="S13">
-        <v>2.15</v>
+        <v>1.87</v>
       </c>
       <c r="T13">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="U13">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="V13">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>2.05</v>
+        <v>1.47</v>
       </c>
       <c r="X13">
         <v>1.25</v>
       </c>
       <c r="Y13">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="Z13">
-        <v>0.74</v>
+        <v>1.95</v>
       </c>
       <c r="AA13">
-        <v>1.58</v>
+        <v>1.32</v>
       </c>
       <c r="AB13">
         <v>1.27</v>
       </c>
       <c r="AC13">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="AD13">
-        <v>2.53</v>
+        <v>2.61</v>
       </c>
       <c r="AE13">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="AF13">
         <v>8</v>
       </c>
       <c r="AG13">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AH13">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="AI13">
-        <v>2.85</v>
+        <v>4</v>
       </c>
       <c r="AJ13">
+        <v>1.4</v>
+      </c>
+      <c r="AK13">
+        <v>2.75</v>
+      </c>
+      <c r="AL13">
+        <v>1.67</v>
+      </c>
+      <c r="AM13">
+        <v>2.07</v>
+      </c>
+      <c r="AN13">
+        <v>2.12</v>
+      </c>
+      <c r="AO13">
         <v>1.64</v>
       </c>
-      <c r="AK13">
-        <v>2.1</v>
-      </c>
-      <c r="AL13">
-        <v>2.08</v>
-      </c>
-      <c r="AM13">
-        <v>1.65</v>
-      </c>
-      <c r="AN13">
-        <v>2.75</v>
-      </c>
-      <c r="AO13">
-        <v>1.38</v>
-      </c>
       <c r="AP13">
-        <v>3.85</v>
+        <v>2.77</v>
       </c>
       <c r="AQ13">
-        <v>1.21</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="14" spans="1:43">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2">
         <v>45374</v>
@@ -2416,7 +2416,7 @@
         <v>52</v>
       </c>
       <c r="D14">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
         <v>71</v>
@@ -2425,22 +2425,22 @@
         <v>95</v>
       </c>
       <c r="G14">
-        <v>5.5</v>
+        <v>2.38</v>
       </c>
       <c r="H14">
         <v>2.2</v>
       </c>
       <c r="I14">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="J14">
-        <v>4.35</v>
+        <v>1.75</v>
       </c>
       <c r="K14">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="L14">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
         <v>1.4</v>
@@ -2458,82 +2458,82 @@
         <v>1.33</v>
       </c>
       <c r="R14">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="S14">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="T14">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V14">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W14">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="X14">
         <v>1.22</v>
       </c>
       <c r="Y14">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="Z14">
-        <v>1.53</v>
+        <v>1.89</v>
       </c>
       <c r="AA14">
-        <v>2</v>
+        <v>1.16</v>
       </c>
       <c r="AB14">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AC14">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="AD14">
-        <v>2.64</v>
+        <v>2.54</v>
       </c>
       <c r="AE14">
-        <v>3.48</v>
+        <v>1.51</v>
       </c>
       <c r="AF14">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG14">
-        <v>1.45</v>
+        <v>3.07</v>
       </c>
       <c r="AH14">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AI14">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="AJ14">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="AK14">
-        <v>2.75</v>
+        <v>2.47</v>
       </c>
       <c r="AL14">
-        <v>1.66</v>
+        <v>1.9</v>
       </c>
       <c r="AM14">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="AN14">
-        <v>2.08</v>
+        <v>2.37</v>
       </c>
       <c r="AO14">
-        <v>1.65</v>
+        <v>1.51</v>
       </c>
       <c r="AP14">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="AQ14">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2556,22 +2556,22 @@
         <v>96</v>
       </c>
       <c r="G15">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="H15">
         <v>2.1</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15">
-        <v>2.09</v>
+        <v>2.8</v>
       </c>
       <c r="K15">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L15">
-        <v>2.95</v>
+        <v>2.4</v>
       </c>
       <c r="M15">
         <v>1.4</v>
@@ -2583,58 +2583,58 @@
         <v>1.05</v>
       </c>
       <c r="P15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q15">
         <v>1.33</v>
       </c>
       <c r="R15">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="S15">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="T15">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="U15">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W15">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="X15">
         <v>1.25</v>
       </c>
       <c r="Y15">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="Z15">
-        <v>0.89</v>
+        <v>1.56</v>
       </c>
       <c r="AA15">
-        <v>1.06</v>
+        <v>1.32</v>
       </c>
       <c r="AB15">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AC15">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AD15">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="AE15">
-        <v>1.59</v>
+        <v>2.1</v>
       </c>
       <c r="AF15">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG15">
-        <v>2.85</v>
+        <v>2</v>
       </c>
       <c r="AH15">
         <v>1.2</v>
@@ -2643,28 +2643,28 @@
         <v>4</v>
       </c>
       <c r="AJ15">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AK15">
-        <v>2.62</v>
+        <v>2.77</v>
       </c>
       <c r="AL15">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AM15">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AN15">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="AO15">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AP15">
-        <v>3.1</v>
+        <v>2.77</v>
       </c>
       <c r="AQ15">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -2696,13 +2696,13 @@
         <v>2.95</v>
       </c>
       <c r="J16">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K16">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="L16">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="M16">
         <v>1.58</v>
@@ -2726,7 +2726,7 @@
         <v>2.6</v>
       </c>
       <c r="T16">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="U16">
         <v>2.19</v>
@@ -2827,13 +2827,13 @@
         <v>5</v>
       </c>
       <c r="J17">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="K17">
-        <v>3.95</v>
+        <v>3.58</v>
       </c>
       <c r="L17">
-        <v>4.64</v>
+        <v>3.93</v>
       </c>
       <c r="M17">
         <v>1.36</v>
@@ -2854,10 +2854,10 @@
         <v>4</v>
       </c>
       <c r="S17">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="T17">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="U17">
         <v>1.8</v>
@@ -2958,13 +2958,13 @@
         <v>3.25</v>
       </c>
       <c r="J18">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="L18">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="M18">
         <v>1.57</v>
@@ -2985,10 +2985,10 @@
         <v>2.45</v>
       </c>
       <c r="S18">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T18">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="U18">
         <v>2.05</v>
@@ -3089,13 +3089,13 @@
         <v>4</v>
       </c>
       <c r="J19">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="K19">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="M19">
         <v>1.57</v>
@@ -3116,10 +3116,10 @@
         <v>2.55</v>
       </c>
       <c r="S19">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="T19">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="U19">
         <v>2.1</v>
@@ -3283,19 +3283,19 @@
         <v>3.24</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AJ20">
         <v>1.29</v>
@@ -3414,19 +3414,19 @@
         <v>2.51</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ21">
         <v>1.38</v>
@@ -3545,13 +3545,13 @@
         <v>3.47</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH22">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>0</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AL22">
         <v>1.69</v>
@@ -3578,10 +3578,10 @@
         <v>1.71</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="23" spans="1:43">
@@ -3676,13 +3676,13 @@
         <v>3.11</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>3.83</v>
       </c>
       <c r="AH23">
         <v>0</v>
@@ -3744,13 +3744,13 @@
         <v>4.33</v>
       </c>
       <c r="J24">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="K24">
-        <v>3.5</v>
+        <v>3.44</v>
       </c>
       <c r="L24">
-        <v>3.94</v>
+        <v>3.87</v>
       </c>
       <c r="M24">
         <v>1.4</v>
@@ -3771,10 +3771,10 @@
         <v>3.3</v>
       </c>
       <c r="S24">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="T24">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="U24">
         <v>1.83</v>
@@ -3875,13 +3875,13 @@
         <v>5</v>
       </c>
       <c r="J25">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="K25">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L25">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M25">
         <v>1.57</v>
@@ -3902,10 +3902,10 @@
         <v>2.37</v>
       </c>
       <c r="S25">
-        <v>2.55</v>
+        <v>2.26</v>
       </c>
       <c r="T25">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="U25">
         <v>2.25</v>

--- a/Jogos_do_Dia/2024-03-23_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-23_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -862,13 +862,13 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="K2">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L2">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="M2">
         <v>1.25</v>
@@ -889,10 +889,10 @@
         <v>5.5</v>
       </c>
       <c r="S2">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="T2">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="U2">
         <v>1.67</v>
@@ -910,10 +910,10 @@
         <v>2.95</v>
       </c>
       <c r="Z2">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA2">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AB2">
         <v>1.97</v>
@@ -993,13 +993,13 @@
         <v>2.75</v>
       </c>
       <c r="J3">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="K3">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L3">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="M3">
         <v>1.4</v>
@@ -1020,10 +1020,10 @@
         <v>3.5</v>
       </c>
       <c r="S3">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="U3">
         <v>1.73</v>
@@ -1041,10 +1041,10 @@
         <v>1.33</v>
       </c>
       <c r="Z3">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AA3">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AB3">
         <v>1.29</v>
@@ -1127,10 +1127,10 @@
         <v>2.1</v>
       </c>
       <c r="K4">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L4">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M4">
         <v>1.3</v>
@@ -1151,10 +1151,10 @@
         <v>4</v>
       </c>
       <c r="S4">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="T4">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="U4">
         <v>1.6</v>
@@ -1255,13 +1255,13 @@
         <v>2.3</v>
       </c>
       <c r="J5">
-        <v>4.98</v>
+        <v>4.45</v>
       </c>
       <c r="K5">
-        <v>2.94</v>
+        <v>3.43</v>
       </c>
       <c r="L5">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="M5">
         <v>1.4</v>
@@ -1282,10 +1282,10 @@
         <v>3.3</v>
       </c>
       <c r="S5">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T5">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="U5">
         <v>2</v>
@@ -1386,13 +1386,13 @@
         <v>2.5</v>
       </c>
       <c r="J6">
-        <v>4.25</v>
+        <v>7</v>
       </c>
       <c r="K6">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="L6">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="M6">
         <v>1.44</v>
@@ -1413,10 +1413,10 @@
         <v>2.85</v>
       </c>
       <c r="S6">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="T6">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="U6">
         <v>2.05</v>
@@ -1517,13 +1517,13 @@
         <v>3.75</v>
       </c>
       <c r="J7">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="K7">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L7">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M7">
         <v>1.33</v>
@@ -1544,10 +1544,10 @@
         <v>4</v>
       </c>
       <c r="S7">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="U7">
         <v>1.57</v>
@@ -1648,13 +1648,13 @@
         <v>4</v>
       </c>
       <c r="J8">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>3.5</v>
+        <v>3.12</v>
       </c>
       <c r="L8">
-        <v>3.3</v>
+        <v>3.11</v>
       </c>
       <c r="M8">
         <v>1.4</v>
@@ -1675,10 +1675,10 @@
         <v>3.3</v>
       </c>
       <c r="S8">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T8">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U8">
         <v>1.73</v>
@@ -1779,13 +1779,13 @@
         <v>4</v>
       </c>
       <c r="J9">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="K9">
-        <v>3.6</v>
+        <v>3.43</v>
       </c>
       <c r="L9">
-        <v>3.9</v>
+        <v>2.84</v>
       </c>
       <c r="M9">
         <v>1.29</v>
@@ -1806,10 +1806,10 @@
         <v>4.75</v>
       </c>
       <c r="S9">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="T9">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
         <v>1.53</v>
@@ -1910,13 +1910,13 @@
         <v>3.75</v>
       </c>
       <c r="J10">
-        <v>2.4</v>
+        <v>2.29</v>
       </c>
       <c r="K10">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="L10">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="M10">
         <v>1.5</v>
@@ -1937,10 +1937,10 @@
         <v>3</v>
       </c>
       <c r="S10">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T10">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U10">
         <v>1.95</v>
@@ -2041,13 +2041,13 @@
         <v>2.4</v>
       </c>
       <c r="J11">
-        <v>3.5</v>
+        <v>3.27</v>
       </c>
       <c r="K11">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="L11">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="M11">
         <v>1.33</v>
@@ -2068,10 +2068,10 @@
         <v>4.2</v>
       </c>
       <c r="S11">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="T11">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="U11">
         <v>1.67</v>
@@ -2172,13 +2172,13 @@
         <v>4.33</v>
       </c>
       <c r="J12">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="K12">
-        <v>3.7</v>
+        <v>3.17</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3.63</v>
       </c>
       <c r="M12">
         <v>1.4</v>
@@ -2199,10 +2199,10 @@
         <v>3.5</v>
       </c>
       <c r="S12">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="T12">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U12">
         <v>1.8</v>
@@ -2303,13 +2303,13 @@
         <v>3.4</v>
       </c>
       <c r="J13">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="K13">
-        <v>3.3</v>
+        <v>2.96</v>
       </c>
       <c r="L13">
-        <v>2.55</v>
+        <v>2.51</v>
       </c>
       <c r="M13">
         <v>1.4</v>
@@ -2330,10 +2330,10 @@
         <v>3.3</v>
       </c>
       <c r="S13">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="T13">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="U13">
         <v>1.73</v>
@@ -2434,13 +2434,13 @@
         <v>5</v>
       </c>
       <c r="J14">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="K14">
-        <v>3.75</v>
+        <v>3.27</v>
       </c>
       <c r="L14">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M14">
         <v>1.4</v>
@@ -2461,10 +2461,10 @@
         <v>3.25</v>
       </c>
       <c r="S14">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="T14">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U14">
         <v>1.91</v>
@@ -2565,13 +2565,13 @@
         <v>3</v>
       </c>
       <c r="J15">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="K15">
-        <v>3.5</v>
+        <v>2.97</v>
       </c>
       <c r="L15">
-        <v>2.4</v>
+        <v>2.07</v>
       </c>
       <c r="M15">
         <v>1.4</v>
@@ -2592,10 +2592,10 @@
         <v>3.25</v>
       </c>
       <c r="S15">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T15">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U15">
         <v>1.8</v>
@@ -2696,13 +2696,13 @@
         <v>2.95</v>
       </c>
       <c r="J16">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K16">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="L16">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="M16">
         <v>1.58</v>
@@ -2717,16 +2717,16 @@
         <v>6.15</v>
       </c>
       <c r="Q16">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R16">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S16">
         <v>2.6</v>
       </c>
       <c r="T16">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="U16">
         <v>2.19</v>
@@ -2827,13 +2827,13 @@
         <v>5</v>
       </c>
       <c r="J17">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="K17">
-        <v>3.58</v>
+        <v>3.65</v>
       </c>
       <c r="L17">
-        <v>3.93</v>
+        <v>4.5</v>
       </c>
       <c r="M17">
         <v>1.36</v>
@@ -2854,10 +2854,10 @@
         <v>4</v>
       </c>
       <c r="S17">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T17">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="U17">
         <v>1.8</v>
@@ -2958,13 +2958,13 @@
         <v>3.25</v>
       </c>
       <c r="J18">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="K18">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="L18">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="M18">
         <v>1.57</v>
@@ -2982,13 +2982,13 @@
         <v>1.5</v>
       </c>
       <c r="R18">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="S18">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="T18">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="U18">
         <v>2.05</v>
@@ -3089,10 +3089,10 @@
         <v>4</v>
       </c>
       <c r="J19">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="L19">
         <v>3.3</v>
@@ -3113,13 +3113,13 @@
         <v>1.5</v>
       </c>
       <c r="R19">
+        <v>2.5</v>
+      </c>
+      <c r="S19">
         <v>2.55</v>
       </c>
-      <c r="S19">
-        <v>2.3</v>
-      </c>
       <c r="T19">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="U19">
         <v>2.1</v>
@@ -3554,10 +3554,10 @@
         <v>2.5</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ22">
         <v>1.36</v>
@@ -3685,10 +3685,10 @@
         <v>3.83</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ23">
         <v>1.33</v>
@@ -3744,13 +3744,13 @@
         <v>4.33</v>
       </c>
       <c r="J24">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="K24">
-        <v>3.44</v>
+        <v>3.45</v>
       </c>
       <c r="L24">
-        <v>3.87</v>
+        <v>3.85</v>
       </c>
       <c r="M24">
         <v>1.4</v>
@@ -3771,10 +3771,10 @@
         <v>3.3</v>
       </c>
       <c r="S24">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="T24">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U24">
         <v>1.83</v>
@@ -3875,13 +3875,13 @@
         <v>5</v>
       </c>
       <c r="J25">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="K25">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="L25">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M25">
         <v>1.57</v>
@@ -3896,16 +3896,16 @@
         <v>6.25</v>
       </c>
       <c r="Q25">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="R25">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="S25">
-        <v>2.26</v>
+        <v>2.55</v>
       </c>
       <c r="T25">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="U25">
         <v>2.25</v>
